--- a/ocms/src/test/resources/DownloadedFiles/SMS Response Template (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/SMS Response Template (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
   <si>
     <t xml:space="preserve">Text</t>
   </si>
@@ -49,34 +49,217 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
-    <t xml:space="preserve">welcome </t>
-  </si>
-  <si>
-    <t xml:space="preserve">76849</t>
+    <t xml:space="preserve">Dummy</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
+    <t xml:space="preserve">Souce8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bengteth\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2019 15:17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souce98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2019 15:18:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souce19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2019 15:19:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intent12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souce1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2019 15:20:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestLoad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souce2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2019 13:59:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESPONSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souce9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2019 14:02:42</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENGTETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/10/2019 15:58:58</t>
+    <t xml:space="preserve">94310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKSALX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSAMX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKMAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/10/2019 14:46:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souce5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2019 14:00:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestSMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Text1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/10/2019 13:46:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestTEMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souce3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2019 13:59:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souce7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2019 14:01:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testdata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2019 13:58:28</t>
   </si>
 </sst>
 </file>
@@ -144,24 +327,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr x14ac:dyDescent="0.25" defaultRowHeight="15"/>
+  <sheetFormatPr x14ac:dyDescent="0.25" customHeight="1" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="14.290714285714287"/>
-    <col min="2" max="2" customWidth="1" width="14.290714285714287"/>
-    <col min="3" max="3" customWidth="1" width="14.290714285714287"/>
-    <col min="4" max="4" customWidth="1" width="14.290714285714287"/>
-    <col min="5" max="5" customWidth="1" width="14.290714285714287"/>
-    <col min="6" max="6" customWidth="1" width="14.290714285714287"/>
-    <col min="7" max="7" customWidth="1" width="14.290714285714287"/>
-    <col min="8" max="8" customWidth="1" width="14.290714285714287"/>
-    <col min="9" max="9" customWidth="1" width="28.576428571428572"/>
-    <col min="10" max="10" customWidth="1" width="28.576428571428572"/>
+    <col min="1" max="1" customWidth="1" width="14.215401785714286"/>
+    <col min="2" max="2" customWidth="1" width="14.215401785714286"/>
+    <col min="3" max="3" customWidth="1" width="14.215401785714286"/>
+    <col min="4" max="4" customWidth="1" width="14.215401785714286"/>
+    <col min="5" max="5" customWidth="1" width="14.215401785714286"/>
+    <col min="6" max="6" customWidth="1" width="14.215401785714286"/>
+    <col min="7" max="7" customWidth="1" width="14.215401785714286"/>
+    <col min="8" max="8" customWidth="1" width="14.215401785714286"/>
+    <col min="9" max="9" customWidth="1" width="28.501116071428573"/>
+    <col min="10" max="10" customWidth="1" width="28.501116071428573"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
@@ -201,31 +384,383 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="D3" t="s">
         <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/SMS Response Template (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/SMS Response Template (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t xml:space="preserve">Text</t>
   </si>
@@ -137,48 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">24/10/2019 14:00:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMS Respon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMS Test2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/12/2019 15:58:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vallue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">big</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qatetherfi\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/01/2020 12:54:02</t>
   </si>
   <si>
     <t xml:space="preserve">RESPONSE</t>
@@ -345,7 +303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -565,45 +523,45 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -612,205 +570,141 @@
         <v>50</v>
       </c>
       <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
